--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/www/beta/domifa/packages/backend/src/excel/_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541EC41B-AA98-2140-A21A-63500BA3CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12498953-2512-6B43-8657-11BE71DC4010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Date et heure</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Si renouvellement, utilisateur l'ayant validé</t>
+  </si>
+  <si>
+    <t>Notifications SMS</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
@@ -781,11 +784,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,17 +797,17 @@
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +815,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,27 +835,30 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E40C88-64E7-C84F-9EFA-57DEB55FA877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71AA42-36F8-6146-B201-F1042DF9B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Date et heure</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Indicatif pays</t>
+  </si>
+  <si>
+    <t>Numéro de distribution spéciale (BP, TSA, etc)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy&quot; à &quot;hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="64"/>
@@ -198,6 +201,13 @@
       <sz val="12"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -233,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,12 +474,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMP2"/>
+  <dimension ref="A1:AMQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,22 +493,23 @@
     <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="52" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="1030" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="53" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="1031" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +517,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -534,46 +548,49 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71AA42-36F8-6146-B201-F1042DF9B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76247975-F62C-0F4E-9F3E-D27A90A4BFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Date et heure</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Numéro de distribution spéciale (BP, TSA, etc)</t>
+  </si>
+  <si>
+    <t>Connexions au portail</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,6 +249,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
@@ -721,15 +736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -741,68 +756,1099 @@
     <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="1028" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="1" customWidth="1"/>
+    <col min="19" max="1028" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1028" s="9" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="8">
         <v>44125.4504903704</v>
       </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="7"/>
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="7"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="7"/>
+      <c r="DU1" s="7"/>
+      <c r="DV1" s="7"/>
+      <c r="DW1" s="7"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="7"/>
+      <c r="EA1" s="7"/>
+      <c r="EB1" s="7"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="7"/>
+      <c r="EE1" s="7"/>
+      <c r="EF1" s="7"/>
+      <c r="EG1" s="7"/>
+      <c r="EH1" s="7"/>
+      <c r="EI1" s="7"/>
+      <c r="EJ1" s="7"/>
+      <c r="EK1" s="7"/>
+      <c r="EL1" s="7"/>
+      <c r="EM1" s="7"/>
+      <c r="EN1" s="7"/>
+      <c r="EO1" s="7"/>
+      <c r="EP1" s="7"/>
+      <c r="EQ1" s="7"/>
+      <c r="ER1" s="7"/>
+      <c r="ES1" s="7"/>
+      <c r="ET1" s="7"/>
+      <c r="EU1" s="7"/>
+      <c r="EV1" s="7"/>
+      <c r="EW1" s="7"/>
+      <c r="EX1" s="7"/>
+      <c r="EY1" s="7"/>
+      <c r="EZ1" s="7"/>
+      <c r="FA1" s="7"/>
+      <c r="FB1" s="7"/>
+      <c r="FC1" s="7"/>
+      <c r="FD1" s="7"/>
+      <c r="FE1" s="7"/>
+      <c r="FF1" s="7"/>
+      <c r="FG1" s="7"/>
+      <c r="FH1" s="7"/>
+      <c r="FI1" s="7"/>
+      <c r="FJ1" s="7"/>
+      <c r="FK1" s="7"/>
+      <c r="FL1" s="7"/>
+      <c r="FM1" s="7"/>
+      <c r="FN1" s="7"/>
+      <c r="FO1" s="7"/>
+      <c r="FP1" s="7"/>
+      <c r="FQ1" s="7"/>
+      <c r="FR1" s="7"/>
+      <c r="FS1" s="7"/>
+      <c r="FT1" s="7"/>
+      <c r="FU1" s="7"/>
+      <c r="FV1" s="7"/>
+      <c r="FW1" s="7"/>
+      <c r="FX1" s="7"/>
+      <c r="FY1" s="7"/>
+      <c r="FZ1" s="7"/>
+      <c r="GA1" s="7"/>
+      <c r="GB1" s="7"/>
+      <c r="GC1" s="7"/>
+      <c r="GD1" s="7"/>
+      <c r="GE1" s="7"/>
+      <c r="GF1" s="7"/>
+      <c r="GG1" s="7"/>
+      <c r="GH1" s="7"/>
+      <c r="GI1" s="7"/>
+      <c r="GJ1" s="7"/>
+      <c r="GK1" s="7"/>
+      <c r="GL1" s="7"/>
+      <c r="GM1" s="7"/>
+      <c r="GN1" s="7"/>
+      <c r="GO1" s="7"/>
+      <c r="GP1" s="7"/>
+      <c r="GQ1" s="7"/>
+      <c r="GR1" s="7"/>
+      <c r="GS1" s="7"/>
+      <c r="GT1" s="7"/>
+      <c r="GU1" s="7"/>
+      <c r="GV1" s="7"/>
+      <c r="GW1" s="7"/>
+      <c r="GX1" s="7"/>
+      <c r="GY1" s="7"/>
+      <c r="GZ1" s="7"/>
+      <c r="HA1" s="7"/>
+      <c r="HB1" s="7"/>
+      <c r="HC1" s="7"/>
+      <c r="HD1" s="7"/>
+      <c r="HE1" s="7"/>
+      <c r="HF1" s="7"/>
+      <c r="HG1" s="7"/>
+      <c r="HH1" s="7"/>
+      <c r="HI1" s="7"/>
+      <c r="HJ1" s="7"/>
+      <c r="HK1" s="7"/>
+      <c r="HL1" s="7"/>
+      <c r="HM1" s="7"/>
+      <c r="HN1" s="7"/>
+      <c r="HO1" s="7"/>
+      <c r="HP1" s="7"/>
+      <c r="HQ1" s="7"/>
+      <c r="HR1" s="7"/>
+      <c r="HS1" s="7"/>
+      <c r="HT1" s="7"/>
+      <c r="HU1" s="7"/>
+      <c r="HV1" s="7"/>
+      <c r="HW1" s="7"/>
+      <c r="HX1" s="7"/>
+      <c r="HY1" s="7"/>
+      <c r="HZ1" s="7"/>
+      <c r="IA1" s="7"/>
+      <c r="IB1" s="7"/>
+      <c r="IC1" s="7"/>
+      <c r="ID1" s="7"/>
+      <c r="IE1" s="7"/>
+      <c r="IF1" s="7"/>
+      <c r="IG1" s="7"/>
+      <c r="IH1" s="7"/>
+      <c r="II1" s="7"/>
+      <c r="IJ1" s="7"/>
+      <c r="IK1" s="7"/>
+      <c r="IL1" s="7"/>
+      <c r="IM1" s="7"/>
+      <c r="IN1" s="7"/>
+      <c r="IO1" s="7"/>
+      <c r="IP1" s="7"/>
+      <c r="IQ1" s="7"/>
+      <c r="IR1" s="7"/>
+      <c r="IS1" s="7"/>
+      <c r="IT1" s="7"/>
+      <c r="IU1" s="7"/>
+      <c r="IV1" s="7"/>
+      <c r="IW1" s="7"/>
+      <c r="IX1" s="7"/>
+      <c r="IY1" s="7"/>
+      <c r="IZ1" s="7"/>
+      <c r="JA1" s="7"/>
+      <c r="JB1" s="7"/>
+      <c r="JC1" s="7"/>
+      <c r="JD1" s="7"/>
+      <c r="JE1" s="7"/>
+      <c r="JF1" s="7"/>
+      <c r="JG1" s="7"/>
+      <c r="JH1" s="7"/>
+      <c r="JI1" s="7"/>
+      <c r="JJ1" s="7"/>
+      <c r="JK1" s="7"/>
+      <c r="JL1" s="7"/>
+      <c r="JM1" s="7"/>
+      <c r="JN1" s="7"/>
+      <c r="JO1" s="7"/>
+      <c r="JP1" s="7"/>
+      <c r="JQ1" s="7"/>
+      <c r="JR1" s="7"/>
+      <c r="JS1" s="7"/>
+      <c r="JT1" s="7"/>
+      <c r="JU1" s="7"/>
+      <c r="JV1" s="7"/>
+      <c r="JW1" s="7"/>
+      <c r="JX1" s="7"/>
+      <c r="JY1" s="7"/>
+      <c r="JZ1" s="7"/>
+      <c r="KA1" s="7"/>
+      <c r="KB1" s="7"/>
+      <c r="KC1" s="7"/>
+      <c r="KD1" s="7"/>
+      <c r="KE1" s="7"/>
+      <c r="KF1" s="7"/>
+      <c r="KG1" s="7"/>
+      <c r="KH1" s="7"/>
+      <c r="KI1" s="7"/>
+      <c r="KJ1" s="7"/>
+      <c r="KK1" s="7"/>
+      <c r="KL1" s="7"/>
+      <c r="KM1" s="7"/>
+      <c r="KN1" s="7"/>
+      <c r="KO1" s="7"/>
+      <c r="KP1" s="7"/>
+      <c r="KQ1" s="7"/>
+      <c r="KR1" s="7"/>
+      <c r="KS1" s="7"/>
+      <c r="KT1" s="7"/>
+      <c r="KU1" s="7"/>
+      <c r="KV1" s="7"/>
+      <c r="KW1" s="7"/>
+      <c r="KX1" s="7"/>
+      <c r="KY1" s="7"/>
+      <c r="KZ1" s="7"/>
+      <c r="LA1" s="7"/>
+      <c r="LB1" s="7"/>
+      <c r="LC1" s="7"/>
+      <c r="LD1" s="7"/>
+      <c r="LE1" s="7"/>
+      <c r="LF1" s="7"/>
+      <c r="LG1" s="7"/>
+      <c r="LH1" s="7"/>
+      <c r="LI1" s="7"/>
+      <c r="LJ1" s="7"/>
+      <c r="LK1" s="7"/>
+      <c r="LL1" s="7"/>
+      <c r="LM1" s="7"/>
+      <c r="LN1" s="7"/>
+      <c r="LO1" s="7"/>
+      <c r="LP1" s="7"/>
+      <c r="LQ1" s="7"/>
+      <c r="LR1" s="7"/>
+      <c r="LS1" s="7"/>
+      <c r="LT1" s="7"/>
+      <c r="LU1" s="7"/>
+      <c r="LV1" s="7"/>
+      <c r="LW1" s="7"/>
+      <c r="LX1" s="7"/>
+      <c r="LY1" s="7"/>
+      <c r="LZ1" s="7"/>
+      <c r="MA1" s="7"/>
+      <c r="MB1" s="7"/>
+      <c r="MC1" s="7"/>
+      <c r="MD1" s="7"/>
+      <c r="ME1" s="7"/>
+      <c r="MF1" s="7"/>
+      <c r="MG1" s="7"/>
+      <c r="MH1" s="7"/>
+      <c r="MI1" s="7"/>
+      <c r="MJ1" s="7"/>
+      <c r="MK1" s="7"/>
+      <c r="ML1" s="7"/>
+      <c r="MM1" s="7"/>
+      <c r="MN1" s="7"/>
+      <c r="MO1" s="7"/>
+      <c r="MP1" s="7"/>
+      <c r="MQ1" s="7"/>
+      <c r="MR1" s="7"/>
+      <c r="MS1" s="7"/>
+      <c r="MT1" s="7"/>
+      <c r="MU1" s="7"/>
+      <c r="MV1" s="7"/>
+      <c r="MW1" s="7"/>
+      <c r="MX1" s="7"/>
+      <c r="MY1" s="7"/>
+      <c r="MZ1" s="7"/>
+      <c r="NA1" s="7"/>
+      <c r="NB1" s="7"/>
+      <c r="NC1" s="7"/>
+      <c r="ND1" s="7"/>
+      <c r="NE1" s="7"/>
+      <c r="NF1" s="7"/>
+      <c r="NG1" s="7"/>
+      <c r="NH1" s="7"/>
+      <c r="NI1" s="7"/>
+      <c r="NJ1" s="7"/>
+      <c r="NK1" s="7"/>
+      <c r="NL1" s="7"/>
+      <c r="NM1" s="7"/>
+      <c r="NN1" s="7"/>
+      <c r="NO1" s="7"/>
+      <c r="NP1" s="7"/>
+      <c r="NQ1" s="7"/>
+      <c r="NR1" s="7"/>
+      <c r="NS1" s="7"/>
+      <c r="NT1" s="7"/>
+      <c r="NU1" s="7"/>
+      <c r="NV1" s="7"/>
+      <c r="NW1" s="7"/>
+      <c r="NX1" s="7"/>
+      <c r="NY1" s="7"/>
+      <c r="NZ1" s="7"/>
+      <c r="OA1" s="7"/>
+      <c r="OB1" s="7"/>
+      <c r="OC1" s="7"/>
+      <c r="OD1" s="7"/>
+      <c r="OE1" s="7"/>
+      <c r="OF1" s="7"/>
+      <c r="OG1" s="7"/>
+      <c r="OH1" s="7"/>
+      <c r="OI1" s="7"/>
+      <c r="OJ1" s="7"/>
+      <c r="OK1" s="7"/>
+      <c r="OL1" s="7"/>
+      <c r="OM1" s="7"/>
+      <c r="ON1" s="7"/>
+      <c r="OO1" s="7"/>
+      <c r="OP1" s="7"/>
+      <c r="OQ1" s="7"/>
+      <c r="OR1" s="7"/>
+      <c r="OS1" s="7"/>
+      <c r="OT1" s="7"/>
+      <c r="OU1" s="7"/>
+      <c r="OV1" s="7"/>
+      <c r="OW1" s="7"/>
+      <c r="OX1" s="7"/>
+      <c r="OY1" s="7"/>
+      <c r="OZ1" s="7"/>
+      <c r="PA1" s="7"/>
+      <c r="PB1" s="7"/>
+      <c r="PC1" s="7"/>
+      <c r="PD1" s="7"/>
+      <c r="PE1" s="7"/>
+      <c r="PF1" s="7"/>
+      <c r="PG1" s="7"/>
+      <c r="PH1" s="7"/>
+      <c r="PI1" s="7"/>
+      <c r="PJ1" s="7"/>
+      <c r="PK1" s="7"/>
+      <c r="PL1" s="7"/>
+      <c r="PM1" s="7"/>
+      <c r="PN1" s="7"/>
+      <c r="PO1" s="7"/>
+      <c r="PP1" s="7"/>
+      <c r="PQ1" s="7"/>
+      <c r="PR1" s="7"/>
+      <c r="PS1" s="7"/>
+      <c r="PT1" s="7"/>
+      <c r="PU1" s="7"/>
+      <c r="PV1" s="7"/>
+      <c r="PW1" s="7"/>
+      <c r="PX1" s="7"/>
+      <c r="PY1" s="7"/>
+      <c r="PZ1" s="7"/>
+      <c r="QA1" s="7"/>
+      <c r="QB1" s="7"/>
+      <c r="QC1" s="7"/>
+      <c r="QD1" s="7"/>
+      <c r="QE1" s="7"/>
+      <c r="QF1" s="7"/>
+      <c r="QG1" s="7"/>
+      <c r="QH1" s="7"/>
+      <c r="QI1" s="7"/>
+      <c r="QJ1" s="7"/>
+      <c r="QK1" s="7"/>
+      <c r="QL1" s="7"/>
+      <c r="QM1" s="7"/>
+      <c r="QN1" s="7"/>
+      <c r="QO1" s="7"/>
+      <c r="QP1" s="7"/>
+      <c r="QQ1" s="7"/>
+      <c r="QR1" s="7"/>
+      <c r="QS1" s="7"/>
+      <c r="QT1" s="7"/>
+      <c r="QU1" s="7"/>
+      <c r="QV1" s="7"/>
+      <c r="QW1" s="7"/>
+      <c r="QX1" s="7"/>
+      <c r="QY1" s="7"/>
+      <c r="QZ1" s="7"/>
+      <c r="RA1" s="7"/>
+      <c r="RB1" s="7"/>
+      <c r="RC1" s="7"/>
+      <c r="RD1" s="7"/>
+      <c r="RE1" s="7"/>
+      <c r="RF1" s="7"/>
+      <c r="RG1" s="7"/>
+      <c r="RH1" s="7"/>
+      <c r="RI1" s="7"/>
+      <c r="RJ1" s="7"/>
+      <c r="RK1" s="7"/>
+      <c r="RL1" s="7"/>
+      <c r="RM1" s="7"/>
+      <c r="RN1" s="7"/>
+      <c r="RO1" s="7"/>
+      <c r="RP1" s="7"/>
+      <c r="RQ1" s="7"/>
+      <c r="RR1" s="7"/>
+      <c r="RS1" s="7"/>
+      <c r="RT1" s="7"/>
+      <c r="RU1" s="7"/>
+      <c r="RV1" s="7"/>
+      <c r="RW1" s="7"/>
+      <c r="RX1" s="7"/>
+      <c r="RY1" s="7"/>
+      <c r="RZ1" s="7"/>
+      <c r="SA1" s="7"/>
+      <c r="SB1" s="7"/>
+      <c r="SC1" s="7"/>
+      <c r="SD1" s="7"/>
+      <c r="SE1" s="7"/>
+      <c r="SF1" s="7"/>
+      <c r="SG1" s="7"/>
+      <c r="SH1" s="7"/>
+      <c r="SI1" s="7"/>
+      <c r="SJ1" s="7"/>
+      <c r="SK1" s="7"/>
+      <c r="SL1" s="7"/>
+      <c r="SM1" s="7"/>
+      <c r="SN1" s="7"/>
+      <c r="SO1" s="7"/>
+      <c r="SP1" s="7"/>
+      <c r="SQ1" s="7"/>
+      <c r="SR1" s="7"/>
+      <c r="SS1" s="7"/>
+      <c r="ST1" s="7"/>
+      <c r="SU1" s="7"/>
+      <c r="SV1" s="7"/>
+      <c r="SW1" s="7"/>
+      <c r="SX1" s="7"/>
+      <c r="SY1" s="7"/>
+      <c r="SZ1" s="7"/>
+      <c r="TA1" s="7"/>
+      <c r="TB1" s="7"/>
+      <c r="TC1" s="7"/>
+      <c r="TD1" s="7"/>
+      <c r="TE1" s="7"/>
+      <c r="TF1" s="7"/>
+      <c r="TG1" s="7"/>
+      <c r="TH1" s="7"/>
+      <c r="TI1" s="7"/>
+      <c r="TJ1" s="7"/>
+      <c r="TK1" s="7"/>
+      <c r="TL1" s="7"/>
+      <c r="TM1" s="7"/>
+      <c r="TN1" s="7"/>
+      <c r="TO1" s="7"/>
+      <c r="TP1" s="7"/>
+      <c r="TQ1" s="7"/>
+      <c r="TR1" s="7"/>
+      <c r="TS1" s="7"/>
+      <c r="TT1" s="7"/>
+      <c r="TU1" s="7"/>
+      <c r="TV1" s="7"/>
+      <c r="TW1" s="7"/>
+      <c r="TX1" s="7"/>
+      <c r="TY1" s="7"/>
+      <c r="TZ1" s="7"/>
+      <c r="UA1" s="7"/>
+      <c r="UB1" s="7"/>
+      <c r="UC1" s="7"/>
+      <c r="UD1" s="7"/>
+      <c r="UE1" s="7"/>
+      <c r="UF1" s="7"/>
+      <c r="UG1" s="7"/>
+      <c r="UH1" s="7"/>
+      <c r="UI1" s="7"/>
+      <c r="UJ1" s="7"/>
+      <c r="UK1" s="7"/>
+      <c r="UL1" s="7"/>
+      <c r="UM1" s="7"/>
+      <c r="UN1" s="7"/>
+      <c r="UO1" s="7"/>
+      <c r="UP1" s="7"/>
+      <c r="UQ1" s="7"/>
+      <c r="UR1" s="7"/>
+      <c r="US1" s="7"/>
+      <c r="UT1" s="7"/>
+      <c r="UU1" s="7"/>
+      <c r="UV1" s="7"/>
+      <c r="UW1" s="7"/>
+      <c r="UX1" s="7"/>
+      <c r="UY1" s="7"/>
+      <c r="UZ1" s="7"/>
+      <c r="VA1" s="7"/>
+      <c r="VB1" s="7"/>
+      <c r="VC1" s="7"/>
+      <c r="VD1" s="7"/>
+      <c r="VE1" s="7"/>
+      <c r="VF1" s="7"/>
+      <c r="VG1" s="7"/>
+      <c r="VH1" s="7"/>
+      <c r="VI1" s="7"/>
+      <c r="VJ1" s="7"/>
+      <c r="VK1" s="7"/>
+      <c r="VL1" s="7"/>
+      <c r="VM1" s="7"/>
+      <c r="VN1" s="7"/>
+      <c r="VO1" s="7"/>
+      <c r="VP1" s="7"/>
+      <c r="VQ1" s="7"/>
+      <c r="VR1" s="7"/>
+      <c r="VS1" s="7"/>
+      <c r="VT1" s="7"/>
+      <c r="VU1" s="7"/>
+      <c r="VV1" s="7"/>
+      <c r="VW1" s="7"/>
+      <c r="VX1" s="7"/>
+      <c r="VY1" s="7"/>
+      <c r="VZ1" s="7"/>
+      <c r="WA1" s="7"/>
+      <c r="WB1" s="7"/>
+      <c r="WC1" s="7"/>
+      <c r="WD1" s="7"/>
+      <c r="WE1" s="7"/>
+      <c r="WF1" s="7"/>
+      <c r="WG1" s="7"/>
+      <c r="WH1" s="7"/>
+      <c r="WI1" s="7"/>
+      <c r="WJ1" s="7"/>
+      <c r="WK1" s="7"/>
+      <c r="WL1" s="7"/>
+      <c r="WM1" s="7"/>
+      <c r="WN1" s="7"/>
+      <c r="WO1" s="7"/>
+      <c r="WP1" s="7"/>
+      <c r="WQ1" s="7"/>
+      <c r="WR1" s="7"/>
+      <c r="WS1" s="7"/>
+      <c r="WT1" s="7"/>
+      <c r="WU1" s="7"/>
+      <c r="WV1" s="7"/>
+      <c r="WW1" s="7"/>
+      <c r="WX1" s="7"/>
+      <c r="WY1" s="7"/>
+      <c r="WZ1" s="7"/>
+      <c r="XA1" s="7"/>
+      <c r="XB1" s="7"/>
+      <c r="XC1" s="7"/>
+      <c r="XD1" s="7"/>
+      <c r="XE1" s="7"/>
+      <c r="XF1" s="7"/>
+      <c r="XG1" s="7"/>
+      <c r="XH1" s="7"/>
+      <c r="XI1" s="7"/>
+      <c r="XJ1" s="7"/>
+      <c r="XK1" s="7"/>
+      <c r="XL1" s="7"/>
+      <c r="XM1" s="7"/>
+      <c r="XN1" s="7"/>
+      <c r="XO1" s="7"/>
+      <c r="XP1" s="7"/>
+      <c r="XQ1" s="7"/>
+      <c r="XR1" s="7"/>
+      <c r="XS1" s="7"/>
+      <c r="XT1" s="7"/>
+      <c r="XU1" s="7"/>
+      <c r="XV1" s="7"/>
+      <c r="XW1" s="7"/>
+      <c r="XX1" s="7"/>
+      <c r="XY1" s="7"/>
+      <c r="XZ1" s="7"/>
+      <c r="YA1" s="7"/>
+      <c r="YB1" s="7"/>
+      <c r="YC1" s="7"/>
+      <c r="YD1" s="7"/>
+      <c r="YE1" s="7"/>
+      <c r="YF1" s="7"/>
+      <c r="YG1" s="7"/>
+      <c r="YH1" s="7"/>
+      <c r="YI1" s="7"/>
+      <c r="YJ1" s="7"/>
+      <c r="YK1" s="7"/>
+      <c r="YL1" s="7"/>
+      <c r="YM1" s="7"/>
+      <c r="YN1" s="7"/>
+      <c r="YO1" s="7"/>
+      <c r="YP1" s="7"/>
+      <c r="YQ1" s="7"/>
+      <c r="YR1" s="7"/>
+      <c r="YS1" s="7"/>
+      <c r="YT1" s="7"/>
+      <c r="YU1" s="7"/>
+      <c r="YV1" s="7"/>
+      <c r="YW1" s="7"/>
+      <c r="YX1" s="7"/>
+      <c r="YY1" s="7"/>
+      <c r="YZ1" s="7"/>
+      <c r="ZA1" s="7"/>
+      <c r="ZB1" s="7"/>
+      <c r="ZC1" s="7"/>
+      <c r="ZD1" s="7"/>
+      <c r="ZE1" s="7"/>
+      <c r="ZF1" s="7"/>
+      <c r="ZG1" s="7"/>
+      <c r="ZH1" s="7"/>
+      <c r="ZI1" s="7"/>
+      <c r="ZJ1" s="7"/>
+      <c r="ZK1" s="7"/>
+      <c r="ZL1" s="7"/>
+      <c r="ZM1" s="7"/>
+      <c r="ZN1" s="7"/>
+      <c r="ZO1" s="7"/>
+      <c r="ZP1" s="7"/>
+      <c r="ZQ1" s="7"/>
+      <c r="ZR1" s="7"/>
+      <c r="ZS1" s="7"/>
+      <c r="ZT1" s="7"/>
+      <c r="ZU1" s="7"/>
+      <c r="ZV1" s="7"/>
+      <c r="ZW1" s="7"/>
+      <c r="ZX1" s="7"/>
+      <c r="ZY1" s="7"/>
+      <c r="ZZ1" s="7"/>
+      <c r="AAA1" s="7"/>
+      <c r="AAB1" s="7"/>
+      <c r="AAC1" s="7"/>
+      <c r="AAD1" s="7"/>
+      <c r="AAE1" s="7"/>
+      <c r="AAF1" s="7"/>
+      <c r="AAG1" s="7"/>
+      <c r="AAH1" s="7"/>
+      <c r="AAI1" s="7"/>
+      <c r="AAJ1" s="7"/>
+      <c r="AAK1" s="7"/>
+      <c r="AAL1" s="7"/>
+      <c r="AAM1" s="7"/>
+      <c r="AAN1" s="7"/>
+      <c r="AAO1" s="7"/>
+      <c r="AAP1" s="7"/>
+      <c r="AAQ1" s="7"/>
+      <c r="AAR1" s="7"/>
+      <c r="AAS1" s="7"/>
+      <c r="AAT1" s="7"/>
+      <c r="AAU1" s="7"/>
+      <c r="AAV1" s="7"/>
+      <c r="AAW1" s="7"/>
+      <c r="AAX1" s="7"/>
+      <c r="AAY1" s="7"/>
+      <c r="AAZ1" s="7"/>
+      <c r="ABA1" s="7"/>
+      <c r="ABB1" s="7"/>
+      <c r="ABC1" s="7"/>
+      <c r="ABD1" s="7"/>
+      <c r="ABE1" s="7"/>
+      <c r="ABF1" s="7"/>
+      <c r="ABG1" s="7"/>
+      <c r="ABH1" s="7"/>
+      <c r="ABI1" s="7"/>
+      <c r="ABJ1" s="7"/>
+      <c r="ABK1" s="7"/>
+      <c r="ABL1" s="7"/>
+      <c r="ABM1" s="7"/>
+      <c r="ABN1" s="7"/>
+      <c r="ABO1" s="7"/>
+      <c r="ABP1" s="7"/>
+      <c r="ABQ1" s="7"/>
+      <c r="ABR1" s="7"/>
+      <c r="ABS1" s="7"/>
+      <c r="ABT1" s="7"/>
+      <c r="ABU1" s="7"/>
+      <c r="ABV1" s="7"/>
+      <c r="ABW1" s="7"/>
+      <c r="ABX1" s="7"/>
+      <c r="ABY1" s="7"/>
+      <c r="ABZ1" s="7"/>
+      <c r="ACA1" s="7"/>
+      <c r="ACB1" s="7"/>
+      <c r="ACC1" s="7"/>
+      <c r="ACD1" s="7"/>
+      <c r="ACE1" s="7"/>
+      <c r="ACF1" s="7"/>
+      <c r="ACG1" s="7"/>
+      <c r="ACH1" s="7"/>
+      <c r="ACI1" s="7"/>
+      <c r="ACJ1" s="7"/>
+      <c r="ACK1" s="7"/>
+      <c r="ACL1" s="7"/>
+      <c r="ACM1" s="7"/>
+      <c r="ACN1" s="7"/>
+      <c r="ACO1" s="7"/>
+      <c r="ACP1" s="7"/>
+      <c r="ACQ1" s="7"/>
+      <c r="ACR1" s="7"/>
+      <c r="ACS1" s="7"/>
+      <c r="ACT1" s="7"/>
+      <c r="ACU1" s="7"/>
+      <c r="ACV1" s="7"/>
+      <c r="ACW1" s="7"/>
+      <c r="ACX1" s="7"/>
+      <c r="ACY1" s="7"/>
+      <c r="ACZ1" s="7"/>
+      <c r="ADA1" s="7"/>
+      <c r="ADB1" s="7"/>
+      <c r="ADC1" s="7"/>
+      <c r="ADD1" s="7"/>
+      <c r="ADE1" s="7"/>
+      <c r="ADF1" s="7"/>
+      <c r="ADG1" s="7"/>
+      <c r="ADH1" s="7"/>
+      <c r="ADI1" s="7"/>
+      <c r="ADJ1" s="7"/>
+      <c r="ADK1" s="7"/>
+      <c r="ADL1" s="7"/>
+      <c r="ADM1" s="7"/>
+      <c r="ADN1" s="7"/>
+      <c r="ADO1" s="7"/>
+      <c r="ADP1" s="7"/>
+      <c r="ADQ1" s="7"/>
+      <c r="ADR1" s="7"/>
+      <c r="ADS1" s="7"/>
+      <c r="ADT1" s="7"/>
+      <c r="ADU1" s="7"/>
+      <c r="ADV1" s="7"/>
+      <c r="ADW1" s="7"/>
+      <c r="ADX1" s="7"/>
+      <c r="ADY1" s="7"/>
+      <c r="ADZ1" s="7"/>
+      <c r="AEA1" s="7"/>
+      <c r="AEB1" s="7"/>
+      <c r="AEC1" s="7"/>
+      <c r="AED1" s="7"/>
+      <c r="AEE1" s="7"/>
+      <c r="AEF1" s="7"/>
+      <c r="AEG1" s="7"/>
+      <c r="AEH1" s="7"/>
+      <c r="AEI1" s="7"/>
+      <c r="AEJ1" s="7"/>
+      <c r="AEK1" s="7"/>
+      <c r="AEL1" s="7"/>
+      <c r="AEM1" s="7"/>
+      <c r="AEN1" s="7"/>
+      <c r="AEO1" s="7"/>
+      <c r="AEP1" s="7"/>
+      <c r="AEQ1" s="7"/>
+      <c r="AER1" s="7"/>
+      <c r="AES1" s="7"/>
+      <c r="AET1" s="7"/>
+      <c r="AEU1" s="7"/>
+      <c r="AEV1" s="7"/>
+      <c r="AEW1" s="7"/>
+      <c r="AEX1" s="7"/>
+      <c r="AEY1" s="7"/>
+      <c r="AEZ1" s="7"/>
+      <c r="AFA1" s="7"/>
+      <c r="AFB1" s="7"/>
+      <c r="AFC1" s="7"/>
+      <c r="AFD1" s="7"/>
+      <c r="AFE1" s="7"/>
+      <c r="AFF1" s="7"/>
+      <c r="AFG1" s="7"/>
+      <c r="AFH1" s="7"/>
+      <c r="AFI1" s="7"/>
+      <c r="AFJ1" s="7"/>
+      <c r="AFK1" s="7"/>
+      <c r="AFL1" s="7"/>
+      <c r="AFM1" s="7"/>
+      <c r="AFN1" s="7"/>
+      <c r="AFO1" s="7"/>
+      <c r="AFP1" s="7"/>
+      <c r="AFQ1" s="7"/>
+      <c r="AFR1" s="7"/>
+      <c r="AFS1" s="7"/>
+      <c r="AFT1" s="7"/>
+      <c r="AFU1" s="7"/>
+      <c r="AFV1" s="7"/>
+      <c r="AFW1" s="7"/>
+      <c r="AFX1" s="7"/>
+      <c r="AFY1" s="7"/>
+      <c r="AFZ1" s="7"/>
+      <c r="AGA1" s="7"/>
+      <c r="AGB1" s="7"/>
+      <c r="AGC1" s="7"/>
+      <c r="AGD1" s="7"/>
+      <c r="AGE1" s="7"/>
+      <c r="AGF1" s="7"/>
+      <c r="AGG1" s="7"/>
+      <c r="AGH1" s="7"/>
+      <c r="AGI1" s="7"/>
+      <c r="AGJ1" s="7"/>
+      <c r="AGK1" s="7"/>
+      <c r="AGL1" s="7"/>
+      <c r="AGM1" s="7"/>
+      <c r="AGN1" s="7"/>
+      <c r="AGO1" s="7"/>
+      <c r="AGP1" s="7"/>
+      <c r="AGQ1" s="7"/>
+      <c r="AGR1" s="7"/>
+      <c r="AGS1" s="7"/>
+      <c r="AGT1" s="7"/>
+      <c r="AGU1" s="7"/>
+      <c r="AGV1" s="7"/>
+      <c r="AGW1" s="7"/>
+      <c r="AGX1" s="7"/>
+      <c r="AGY1" s="7"/>
+      <c r="AGZ1" s="7"/>
+      <c r="AHA1" s="7"/>
+      <c r="AHB1" s="7"/>
+      <c r="AHC1" s="7"/>
+      <c r="AHD1" s="7"/>
+      <c r="AHE1" s="7"/>
+      <c r="AHF1" s="7"/>
+      <c r="AHG1" s="7"/>
+      <c r="AHH1" s="7"/>
+      <c r="AHI1" s="7"/>
+      <c r="AHJ1" s="7"/>
+      <c r="AHK1" s="7"/>
+      <c r="AHL1" s="7"/>
+      <c r="AHM1" s="7"/>
+      <c r="AHN1" s="7"/>
+      <c r="AHO1" s="7"/>
+      <c r="AHP1" s="7"/>
+      <c r="AHQ1" s="7"/>
+      <c r="AHR1" s="7"/>
+      <c r="AHS1" s="7"/>
+      <c r="AHT1" s="7"/>
+      <c r="AHU1" s="7"/>
+      <c r="AHV1" s="7"/>
+      <c r="AHW1" s="7"/>
+      <c r="AHX1" s="7"/>
+      <c r="AHY1" s="7"/>
+      <c r="AHZ1" s="7"/>
+      <c r="AIA1" s="7"/>
+      <c r="AIB1" s="7"/>
+      <c r="AIC1" s="7"/>
+      <c r="AID1" s="7"/>
+      <c r="AIE1" s="7"/>
+      <c r="AIF1" s="7"/>
+      <c r="AIG1" s="7"/>
+      <c r="AIH1" s="7"/>
+      <c r="AII1" s="7"/>
+      <c r="AIJ1" s="7"/>
+      <c r="AIK1" s="7"/>
+      <c r="AIL1" s="7"/>
+      <c r="AIM1" s="7"/>
+      <c r="AIN1" s="7"/>
+      <c r="AIO1" s="7"/>
+      <c r="AIP1" s="7"/>
+      <c r="AIQ1" s="7"/>
+      <c r="AIR1" s="7"/>
+      <c r="AIS1" s="7"/>
+      <c r="AIT1" s="7"/>
+      <c r="AIU1" s="7"/>
+      <c r="AIV1" s="7"/>
+      <c r="AIW1" s="7"/>
+      <c r="AIX1" s="7"/>
+      <c r="AIY1" s="7"/>
+      <c r="AIZ1" s="7"/>
+      <c r="AJA1" s="7"/>
+      <c r="AJB1" s="7"/>
+      <c r="AJC1" s="7"/>
+      <c r="AJD1" s="7"/>
+      <c r="AJE1" s="7"/>
+      <c r="AJF1" s="7"/>
+      <c r="AJG1" s="7"/>
+      <c r="AJH1" s="7"/>
+      <c r="AJI1" s="7"/>
+      <c r="AJJ1" s="7"/>
+      <c r="AJK1" s="7"/>
+      <c r="AJL1" s="7"/>
+      <c r="AJM1" s="7"/>
+      <c r="AJN1" s="7"/>
+      <c r="AJO1" s="7"/>
+      <c r="AJP1" s="7"/>
+      <c r="AJQ1" s="7"/>
+      <c r="AJR1" s="7"/>
+      <c r="AJS1" s="7"/>
+      <c r="AJT1" s="7"/>
+      <c r="AJU1" s="7"/>
+      <c r="AJV1" s="7"/>
+      <c r="AJW1" s="7"/>
+      <c r="AJX1" s="7"/>
+      <c r="AJY1" s="7"/>
+      <c r="AJZ1" s="7"/>
+      <c r="AKA1" s="7"/>
+      <c r="AKB1" s="7"/>
+      <c r="AKC1" s="7"/>
+      <c r="AKD1" s="7"/>
+      <c r="AKE1" s="7"/>
+      <c r="AKF1" s="7"/>
+      <c r="AKG1" s="7"/>
+      <c r="AKH1" s="7"/>
+      <c r="AKI1" s="7"/>
+      <c r="AKJ1" s="7"/>
+      <c r="AKK1" s="7"/>
+      <c r="AKL1" s="7"/>
+      <c r="AKM1" s="7"/>
+      <c r="AKN1" s="7"/>
+      <c r="AKO1" s="7"/>
+      <c r="AKP1" s="7"/>
+      <c r="AKQ1" s="7"/>
+      <c r="AKR1" s="7"/>
+      <c r="AKS1" s="7"/>
+      <c r="AKT1" s="7"/>
+      <c r="AKU1" s="7"/>
+      <c r="AKV1" s="7"/>
+      <c r="AKW1" s="7"/>
+      <c r="AKX1" s="7"/>
+      <c r="AKY1" s="7"/>
+      <c r="AKZ1" s="7"/>
+      <c r="ALA1" s="7"/>
+      <c r="ALB1" s="7"/>
+      <c r="ALC1" s="7"/>
+      <c r="ALD1" s="7"/>
+      <c r="ALE1" s="7"/>
+      <c r="ALF1" s="7"/>
+      <c r="ALG1" s="7"/>
+      <c r="ALH1" s="7"/>
+      <c r="ALI1" s="7"/>
+      <c r="ALJ1" s="7"/>
+      <c r="ALK1" s="7"/>
+      <c r="ALL1" s="7"/>
+      <c r="ALM1" s="7"/>
+      <c r="ALN1" s="7"/>
+      <c r="ALO1" s="7"/>
+      <c r="ALP1" s="7"/>
+      <c r="ALQ1" s="7"/>
+      <c r="ALR1" s="7"/>
+      <c r="ALS1" s="7"/>
+      <c r="ALT1" s="7"/>
+      <c r="ALU1" s="7"/>
+      <c r="ALV1" s="7"/>
+      <c r="ALW1" s="7"/>
+      <c r="ALX1" s="7"/>
+      <c r="ALY1" s="7"/>
+      <c r="ALZ1" s="7"/>
+      <c r="AMA1" s="7"/>
+      <c r="AMB1" s="7"/>
+      <c r="AMC1" s="7"/>
+      <c r="AMD1" s="7"/>
+      <c r="AME1" s="7"/>
+      <c r="AMF1" s="7"/>
+      <c r="AMG1" s="7"/>
+      <c r="AMH1" s="7"/>
+      <c r="AMI1" s="7"/>
+      <c r="AMJ1" s="7"/>
+      <c r="AMK1" s="7"/>
+      <c r="AML1" s="7"/>
+      <c r="AMM1" s="7"/>
+      <c r="AMN1" s="7"/>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1028" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71693E4-59ED-8548-8178-17D2FD1F03D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DF80A-F6A9-CA41-97CE-B73DD1817E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
       <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
@@ -616,10 +616,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,10 +733,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +755,8 @@
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="1028" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.83203125" style="1" customWidth="1"/>
+    <col min="20" max="1028" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1028" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DF80A-F6A9-CA41-97CE-B73DD1817E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BF477-B00A-ED43-93C7-92B2E6D8F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,6 @@
     <t>Colis distribués</t>
   </si>
   <si>
-    <t>Avis de passage enregistré</t>
-  </si>
-  <si>
-    <t>Avis de passage distribué</t>
-  </si>
-  <si>
     <t>Appels</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Pli non distribuable</t>
+  </si>
+  <si>
+    <t>Avis de passage enregistrés</t>
+  </si>
+  <si>
+    <t>Avis de passage distribués</t>
   </si>
 </sst>
 </file>
@@ -207,6 +207,7 @@
       <sz val="12"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -552,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -561,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
@@ -616,10 +617,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,10 +734,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1793,7 +1794,7 @@
       <c r="AMM1" s="4"/>
       <c r="AMN1" s="4"/>
     </row>
-    <row r="2" spans="1:1028" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1028" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1834,22 +1835,22 @@
         <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0BF477-B00A-ED43-93C7-92B2E6D8F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62634C2A-79B4-D04B-97C6-0E3A6C56BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Date et heure</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Avis de passage distribués</t>
+  </si>
+  <si>
+    <t>Si AUTRE LIEN AVEC LA COMMUNE, précisions</t>
   </si>
 </sst>
 </file>
@@ -615,12 +618,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK2"/>
+  <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,21 +634,22 @@
     <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="1025" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="1026" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +657,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,36 +695,39 @@
         <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -734,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62634C2A-79B4-D04B-97C6-0E3A6C56BC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3557F338-3899-C441-A985-27E185F70C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Type de domiciliation</t>
   </si>
   <si>
-    <t>Date début dom actuelle</t>
-  </si>
-  <si>
     <t>Date fin de dom</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Si AUTRE LIEN AVEC LA COMMUNE, précisions</t>
+  </si>
+  <si>
+    <t>Date début dom</t>
   </si>
 </sst>
 </file>
@@ -492,10 +492,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
-      <selection pane="bottomLeft" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
@@ -589,25 +589,25 @@
         <v>16</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
       <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
@@ -657,7 +657,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,58 +677,58 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1821,43 +1821,43 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3557F338-3899-C441-A985-27E185F70C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34282A-C957-7F47-99B1-7E0A7D2B301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Date et heure</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Connexions au portail</t>
-  </si>
-  <si>
-    <t>Pli non distribuable</t>
   </si>
   <si>
     <t>Avis de passage enregistrés</t>
@@ -492,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
       <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
     </sheetView>
@@ -589,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>17</v>
@@ -695,7 +692,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>29</v>
@@ -739,12 +736,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMN2"/>
+  <dimension ref="A1:AMM2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,12 +759,11 @@
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" style="1" customWidth="1"/>
-    <col min="20" max="1028" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" style="1" customWidth="1"/>
+    <col min="19" max="1027" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1028" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1027" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1799,9 +1795,8 @@
       <c r="AMK1" s="4"/>
       <c r="AML1" s="4"/>
       <c r="AMM1" s="4"/>
-      <c r="AMN1" s="4"/>
     </row>
-    <row r="2" spans="1:1028" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1027" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1842,10 +1837,10 @@
         <v>45</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>46</v>
@@ -1854,9 +1849,6 @@
         <v>47</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="3" t="s">
         <v>50</v>
       </c>
     </row>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34282A-C957-7F47-99B1-7E0A7D2B301C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C4431-8CF7-0F4E-84C1-B86DB383D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>Date et heure</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Date début dom</t>
+  </si>
+  <si>
+    <t>Situation professionnelle</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
       <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
@@ -615,12 +618,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AML2"/>
+  <dimension ref="A1:AMM2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,23 +633,24 @@
     <col min="3" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="1026" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="1027" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +658,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,48 +687,51 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -738,10 +745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C4431-8CF7-0F4E-84C1-B86DB383D6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA8948-6D1E-D244-9C4E-BCF0D73FB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Date et heure</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Situation professionnelle</t>
+  </si>
+  <si>
+    <t>Langue parlée</t>
   </si>
 </sst>
 </file>
@@ -490,12 +493,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMQ2"/>
+  <dimension ref="A1:AMR2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
-      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,23 +512,23 @@
     <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="53" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="1031" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.83203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="54" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="1032" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +536,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -564,49 +567,52 @@
       <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -745,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
       <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
@@ -1803,7 +1809,7 @@
       <c r="AML1" s="4"/>
       <c r="AMM1" s="4"/>
     </row>
-    <row r="2" spans="1:1027" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1027" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA8948-6D1E-D244-9C4E-BCF0D73FB63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8992E-3272-5D4B-94F0-6AE251807E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Date et heure</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Langue parlée</t>
+  </si>
+  <si>
+    <t>Si autre situation, précisions</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
@@ -624,12 +627,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMM2"/>
+  <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,24 +642,24 @@
     <col min="3" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="1027" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.33203125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="1028" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +667,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -696,48 +699,51 @@
         <v>55</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>38</v>
       </c>
     </row>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8992E-3272-5D4B-94F0-6AE251807E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B6ADD-D048-4547-985B-60CAA69C9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Date et heure</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>Si autre situation, précisions</t>
+  </si>
+  <si>
+    <t>Courriers réexpédiés</t>
+  </si>
+  <si>
+    <t>Colis réexpédiés</t>
+  </si>
+  <si>
+    <t>Avis de passage réexpédiés</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
       <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
@@ -755,12 +764,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMM2"/>
+  <dimension ref="A1:AMP2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H3" sqref="H3"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,16 +782,19 @@
     <col min="8" max="9" width="16.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="1" customWidth="1"/>
-    <col min="19" max="1027" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
+    <col min="22" max="1030" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1030" s="6" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1814,8 +1826,11 @@
       <c r="AMK1" s="4"/>
       <c r="AML1" s="4"/>
       <c r="AMM1" s="4"/>
+      <c r="AMN1" s="4"/>
+      <c r="AMO1" s="4"/>
+      <c r="AMP1" s="4"/>
     </row>
-    <row r="2" spans="1:1027" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1030" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1850,24 +1865,33 @@
         <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>50</v>
       </c>
     </row>

--- a/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
+++ b/packages/backend/src/excel/_templates/export-structure-usagers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/humans/Documents/dev/domifa/packages/backend/src/excel/_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B6ADD-D048-4547-985B-60CAA69C9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AED3590-BCE2-0542-99F3-B978088AAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste des usagers" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Date et heure</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Avis de passage réexpédiés</t>
+  </si>
+  <si>
+    <t>Nationalité</t>
   </si>
 </sst>
 </file>
@@ -505,12 +508,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMR2"/>
+  <dimension ref="A1:AMS2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U5" sqref="U5"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,23 +527,23 @@
     <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="54" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="1032" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="21.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="55" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="1033" width="8.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +551,7 @@
         <v>44125.4504903704</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -582,49 +585,52 @@
       <c r="K2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -638,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V6" sqref="V6"/>
       <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
@@ -1830,7 +1836,7 @@
       <c r="AMO1" s="4"/>
       <c r="AMP1" s="4"/>
     </row>
-    <row r="2" spans="1:1030" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1030" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
